--- a/Conception/fonctions.xlsx
+++ b/Conception/fonctions.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="54">
   <si>
     <t xml:space="preserve">HEADERS</t>
   </si>
@@ -28,34 +28,100 @@
     <t xml:space="preserve">SOURCES</t>
   </si>
   <si>
+    <t xml:space="preserve">Menu.h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Menu.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stage1.h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stage1.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Init.h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Init.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Init_perso.h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Init_perso.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Init_Elements_Secondaires.h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Init_Elements_Secondaires.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Init_ennemi.h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Init_ennemi.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Init_Background.h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Init_Background.c</t>
+  </si>
+  <si>
     <t xml:space="preserve">Input.h</t>
   </si>
   <si>
     <t xml:space="preserve">Input.c</t>
   </si>
   <si>
+    <t xml:space="preserve">MAJ.h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAJ.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pause.h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pause.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAJ_Perso.h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAJ_Perso.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deplacament_Perso.h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deplacement_Perso.c</t>
+  </si>
+  <si>
     <t xml:space="preserve">Collision.h</t>
   </si>
   <si>
     <t xml:space="preserve">Collision.c</t>
   </si>
   <si>
-    <t xml:space="preserve">Pause.h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pause.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Menu.h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Menu.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Init.h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Init.c</t>
+    <t xml:space="preserve">MAJ_Ennemi.h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAJ_Ennemi.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deplacament_Ennemi.h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deplacement_Ennemi.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAJ_Elements_Secondaires.h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAJ_Elements_Secondaires.c</t>
   </si>
   <si>
     <t xml:space="preserve">Affichage.h</t>
@@ -64,16 +130,34 @@
     <t xml:space="preserve">Affichage.c</t>
   </si>
   <si>
-    <t xml:space="preserve">MAJ_Perso.h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAJ_Perso.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deplacament_Perso.h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deplacement_Perso.c</t>
+    <t xml:space="preserve">Affichage_Perso.h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Affichage_Perso.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Animation_Perso.h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Animation_Perso.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Affichage_Ennemi.h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Affichage_Ennemi.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Animation_Ennemi.h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Animation_Ennemi.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Affichage_Elements_Secondaires.h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Affichage_Elements_Secondaires.c</t>
   </si>
   <si>
     <t xml:space="preserve">Scrolling_camera.h</t>
@@ -82,76 +166,22 @@
     <t xml:space="preserve">Scrolling_camera.c</t>
   </si>
   <si>
-    <t xml:space="preserve">MAJ.h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAJ.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAJ_Ennemi.h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAJ_Ennemi.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAJ_Elements_Secondaires.h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAJ_Elements_Secondaires.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deplacament_Ennemi.h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deplacement_Ennemi.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Init_perso.h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Init_perso.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Init_Elements_Secondaires.h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Init_Elements_Secondaires.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Init_ennemi.h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Init_ennemi.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Affichage_Perso.h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Affichage_Perso.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Affichage_Ennemi.h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Affichage_Ennemi.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Affichage_Elements_Secondaires.h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Affichage_Elements_Secondaires.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Animation_Perso.h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Animation_Perso.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Animation_Ennemi.h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Animation_Ennemi.c</t>
+    <t xml:space="preserve">Stage2.h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stage2.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stage3.h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stage3.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stage4.h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stage4.c</t>
   </si>
 </sst>
 </file>
@@ -161,7 +191,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -196,13 +226,57 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF66"/>
+        <bgColor rgb="FFCCFF66"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCCCCC"/>
+        <bgColor rgb="FFCCCCFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFF66"/>
+        <bgColor rgb="FFFFFF66"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF99FF"/>
+        <bgColor rgb="FFCC99FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99FF99"/>
+        <bgColor rgb="FFCCFF66"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -239,7 +313,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -252,7 +326,51 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -265,6 +383,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFCCFF66"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFCCCCCC"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF99FF99"/>
+      <rgbColor rgb="FFFFFF66"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99FF"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -273,17 +451,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B94"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.2397959183673"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.3724489795918"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.8316326530612"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.1020408163265"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -294,172 +471,717 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="4" s="5" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="5" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B5" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="6" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="7" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B7" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="8" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B8" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="9" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B9" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="10" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B10" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="11" s="9" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B11" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="12" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B12" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+    <row r="13" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B13" s="10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+    <row r="14" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B14" s="11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+    <row r="15" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B15" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+    <row r="16" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B16" s="10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+    <row r="17" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B17" s="11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+    <row r="18" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B18" s="10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+    <row r="19" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B19" s="12" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+    <row r="20" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B20" s="13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+    <row r="21" s="14" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B21" s="14" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+    <row r="22" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B22" s="13" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+    <row r="23" s="14" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B23" s="14" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="24" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" s="5" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" s="9" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="40" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="44" s="14" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="45" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" s="14" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" s="5" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="51" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57" s="9" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="58" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="59" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="60" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="61" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="62" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="63" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B63" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="64" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="65" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B65" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="66" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B66" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="67" s="14" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B67" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="68" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B68" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="69" s="14" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B69" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="70" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B70" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="71" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B71" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="73" s="5" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="74" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="78" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="79" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="80" s="9" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B80" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="81" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B81" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="82" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B82" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="83" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B83" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="84" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B84" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="85" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B85" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="86" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B86" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="87" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B87" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="88" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B88" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="89" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B89" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="90" s="14" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B90" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="91" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B91" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="92" s="14" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B92" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="93" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B93" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="94" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B94" s="13" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/Conception/fonctions.xlsx
+++ b/Conception/fonctions.xlsx
@@ -346,7 +346,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -454,7 +454,7 @@
   <dimension ref="A1:B94"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -528,7 +528,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
         <v>16</v>
       </c>
@@ -704,7 +704,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="8" t="s">
         <v>16</v>
       </c>
@@ -880,7 +880,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="56" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="8" t="s">
         <v>16</v>
       </c>
@@ -1056,7 +1056,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="79" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="8" t="s">
         <v>16</v>
       </c>

--- a/Conception/fonctions.xlsx
+++ b/Conception/fonctions.xlsx
@@ -9,6 +9,7 @@
   </bookViews>
   <sheets>
     <sheet name="Feuille1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Feuille2" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="58">
   <si>
     <t xml:space="preserve">HEADERS</t>
   </si>
@@ -46,6 +47,120 @@
     <t xml:space="preserve">Init.c</t>
   </si>
   <si>
+    <t xml:space="preserve">Init_perso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Init_Elements_Secondaires</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Init_ennemi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Init_Background</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input.h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAJ.h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAJ.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pause.h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pause.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAJ_Perso.h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAJ_Perso.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deplacament_Perso.h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deplacement_Perso.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Collision.h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Collision.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAJ_Ennemi.h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAJ_Ennemi.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deplacament_Ennemi.h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deplacement_Ennemi.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAJ_Elements_Secondaires.h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAJ_Elements_Secondaires.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Affichage.h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Affichage.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Affichage_Perso.h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Affichage_Perso.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Animation_Perso.h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Animation_Perso.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Affichage_Ennemi.h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Affichage_Ennemi.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Animation_Ennemi.h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Animation_Ennemi.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Affichage_Elements_Secondaires.h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Affichage_Elements_Secondaires.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scrolling_camera.h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scrolling_camera.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stage2.h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stage2.c</t>
+  </si>
+  <si>
     <t xml:space="preserve">Init_perso.h</t>
   </si>
   <si>
@@ -68,108 +183,6 @@
   </si>
   <si>
     <t xml:space="preserve">Init_Background.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Input.h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Input.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAJ.h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAJ.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pause.h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pause.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAJ_Perso.h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAJ_Perso.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deplacament_Perso.h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deplacement_Perso.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Collision.h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Collision.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAJ_Ennemi.h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAJ_Ennemi.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deplacament_Ennemi.h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deplacement_Ennemi.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAJ_Elements_Secondaires.h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAJ_Elements_Secondaires.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Affichage.h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Affichage.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Affichage_Perso.h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Affichage_Perso.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Animation_Perso.h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Animation_Perso.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Affichage_Ennemi.h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Affichage_Ennemi.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Animation_Ennemi.h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Animation_Ennemi.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Affichage_Elements_Secondaires.h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Affichage_Elements_Secondaires.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scrolling_camera.h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scrolling_camera.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stage2.h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stage2.c</t>
   </si>
   <si>
     <t xml:space="preserve">Stage3.h</t>
@@ -454,7 +467,7 @@
   <dimension ref="A1:B94"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -500,168 +513,156 @@
       <c r="A6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="7" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" s="9" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="9" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="10" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="10" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="11" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="11" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="10" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="11" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="12" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="13" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" s="14" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="14" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="13" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" s="14" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="14" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="13" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="13" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" s="5" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -674,170 +675,170 @@
     </row>
     <row r="29" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="7" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="7" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="7" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="7" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" s="9" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="9" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="10" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="10" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="11" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="11" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="10" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="11" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="12" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="43" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="13" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="44" s="14" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="14" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="45" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="13" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="46" s="14" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="14" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="47" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="13" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="48" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="13" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="50" s="5" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="4" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="51" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -850,170 +851,170 @@
     </row>
     <row r="52" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="7" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
     </row>
     <row r="53" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="7" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
     </row>
     <row r="54" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="7" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
     </row>
     <row r="55" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="7" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
     </row>
     <row r="56" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="57" s="9" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="9" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="10" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="59" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="10" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="60" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="11" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="11" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="62" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="10" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="11" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="64" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="65" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="12" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="66" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="13" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="67" s="14" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="14" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B67" s="14" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="68" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="13" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="69" s="14" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="14" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B69" s="14" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="70" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="13" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="71" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="13" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="73" s="5" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="4" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="74" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1026,162 +1027,162 @@
     </row>
     <row r="75" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="7" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
     </row>
     <row r="76" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="7" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
     </row>
     <row r="77" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="7" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
     </row>
     <row r="78" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="7" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
     </row>
     <row r="79" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="80" s="9" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="9" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="81" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="10" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="82" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="10" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="83" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="11" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="84" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="11" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B84" s="11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="85" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="10" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="86" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="11" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B86" s="11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="87" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="88" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="12" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="89" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="13" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B89" s="13" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="90" s="14" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="14" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B90" s="14" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="91" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="13" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B91" s="13" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="92" s="14" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="14" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B92" s="14" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="93" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="13" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B93" s="13" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="94" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="13" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B94" s="13" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1193,4 +1194,32 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>